--- a/DataUpload/Seed Data/many to one.xlsx
+++ b/DataUpload/Seed Data/many to one.xlsx
@@ -308,12 +308,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -356,7 +362,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -386,6 +392,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -738,7 +747,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1077,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1080,7 +1089,7 @@
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1166,7 +1175,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1178,7 +1187,7 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1262,7 +1271,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1274,7 +1283,7 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
